--- a/data/negative_signals/Indirectly connected (A-X-B) - Ferrous sulfate - Acute renal failure.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Ferrous sulfate - Acute renal failure.xlsx
@@ -164,10 +164,10 @@
     <t>tier12TripleInformation/9/predicateName</t>
   </si>
   <si>
-    <t>2992895</t>
-  </si>
-  <si>
-    <t>eisensulfat stada</t>
+    <t>131802</t>
+  </si>
+  <si>
+    <t>eisendragees-ratiopharm</t>
   </si>
   <si>
     <t>Chemicals &amp; Drugs</t>
@@ -191,43 +191,43 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>84020915</t>
+    <t>18481796</t>
   </si>
   <si>
     <t>affects</t>
   </si>
   <si>
-    <t>90676989</t>
+    <t>28330174</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>24323562</t>
   </si>
   <si>
     <t>brings about</t>
   </si>
   <si>
-    <t>90676974</t>
+    <t>24323552</t>
   </si>
   <si>
     <t>is associated with</t>
   </si>
   <si>
-    <t>94711070</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
     <t>2655850</t>
   </si>
   <si>
     <t>hif1a (homo sapiens)</t>
   </si>
   <si>
-    <t>85491132</t>
+    <t>17445436</t>
   </si>
   <si>
     <t>inhibits</t>
   </si>
   <si>
-    <t>94494723</t>
+    <t>28137293</t>
   </si>
   <si>
     <t>2456777</t>
@@ -236,34 +236,61 @@
     <t>desferal</t>
   </si>
   <si>
-    <t>83327482</t>
-  </si>
-  <si>
-    <t>80905950</t>
+    <t>18776137</t>
+  </si>
+  <si>
+    <t>14691054</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>14691097</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>80905908</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
     <t>166261</t>
   </si>
   <si>
     <t>deferoxamine mesylate</t>
   </si>
   <si>
-    <t>83327486</t>
-  </si>
-  <si>
-    <t>80905956</t>
-  </si>
-  <si>
-    <t>80905917</t>
+    <t>18776140</t>
+  </si>
+  <si>
+    <t>14691103</t>
+  </si>
+  <si>
+    <t>14691063</t>
+  </si>
+  <si>
+    <t>4034328</t>
+  </si>
+  <si>
+    <t>deferoxamine</t>
+  </si>
+  <si>
+    <t>18776141</t>
+  </si>
+  <si>
+    <t>106580675</t>
+  </si>
+  <si>
+    <t>106555969</t>
+  </si>
+  <si>
+    <t>14691109</t>
+  </si>
+  <si>
+    <t>14691072</t>
+  </si>
+  <si>
+    <t>91223319</t>
+  </si>
+  <si>
+    <t>does not affect</t>
   </si>
   <si>
     <t>2476543</t>
@@ -272,34 +299,262 @@
     <t>tnf (homo sapiens)</t>
   </si>
   <si>
-    <t>83872580</t>
+    <t>19215364</t>
+  </si>
+  <si>
+    <t>19351556</t>
+  </si>
+  <si>
+    <t>17544502</t>
   </si>
   <si>
     <t>stimulates</t>
   </si>
   <si>
-    <t>83512526</t>
-  </si>
-  <si>
-    <t>83329105</t>
-  </si>
-  <si>
-    <t>90737445</t>
-  </si>
-  <si>
-    <t>159857774</t>
+    <t>93667027</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>94707975</t>
+    <t>28334178</t>
+  </si>
+  <si>
+    <t>24384444</t>
+  </si>
+  <si>
+    <t>28334180</t>
   </si>
   <si>
     <t>gene product variant causes</t>
   </si>
   <si>
-    <t>94707973</t>
+    <t>1658339</t>
+  </si>
+  <si>
+    <t>nfkb1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19727588</t>
+  </si>
+  <si>
+    <t>108538358</t>
+  </si>
+  <si>
+    <t>832402</t>
+  </si>
+  <si>
+    <t>quercetin</t>
+  </si>
+  <si>
+    <t>18293670</t>
+  </si>
+  <si>
+    <t>16278120</t>
+  </si>
+  <si>
+    <t>2789017</t>
+  </si>
+  <si>
+    <t>cd44 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20434466</t>
+  </si>
+  <si>
+    <t>24330139</t>
+  </si>
+  <si>
+    <t>1657979</t>
+  </si>
+  <si>
+    <t>nos2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19280296</t>
+  </si>
+  <si>
+    <t>24356754</t>
+  </si>
+  <si>
+    <t>2791205</t>
+  </si>
+  <si>
+    <t>tlr2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>21778800</t>
+  </si>
+  <si>
+    <t>28330965</t>
+  </si>
+  <si>
+    <t>28330962</t>
+  </si>
+  <si>
+    <t>2786023</t>
+  </si>
+  <si>
+    <t>il1b (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17458473</t>
+  </si>
+  <si>
+    <t>28254158</t>
+  </si>
+  <si>
+    <t>28254160</t>
+  </si>
+  <si>
+    <t>570126</t>
+  </si>
+  <si>
+    <t>picolinic acid</t>
+  </si>
+  <si>
+    <t>22562338</t>
+  </si>
+  <si>
+    <t>15774992</t>
+  </si>
+  <si>
+    <t>548478</t>
+  </si>
+  <si>
+    <t>calcium dipicolinate trihydrate</t>
+  </si>
+  <si>
+    <t>22562343</t>
+  </si>
+  <si>
+    <t>15774998</t>
+  </si>
+  <si>
+    <t>5244868</t>
+  </si>
+  <si>
+    <t>zinc picolinate</t>
+  </si>
+  <si>
+    <t>22562347</t>
+  </si>
+  <si>
+    <t>15775005</t>
+  </si>
+  <si>
+    <t>523228</t>
+  </si>
+  <si>
+    <t>nickel</t>
+  </si>
+  <si>
+    <t>21628667</t>
+  </si>
+  <si>
+    <t>14880837</t>
+  </si>
+  <si>
+    <t>5042477</t>
+  </si>
+  <si>
+    <t>picolinate</t>
+  </si>
+  <si>
+    <t>22562345</t>
+  </si>
+  <si>
+    <t>15775001</t>
+  </si>
+  <si>
+    <t>262356</t>
+  </si>
+  <si>
+    <t>chromium picolinate</t>
+  </si>
+  <si>
+    <t>22562335</t>
+  </si>
+  <si>
+    <t>15774989</t>
+  </si>
+  <si>
+    <t>2567778</t>
+  </si>
+  <si>
+    <t>picolinic acid, sodium salt</t>
+  </si>
+  <si>
+    <t>22562353</t>
+  </si>
+  <si>
+    <t>15775014</t>
+  </si>
+  <si>
+    <t>2532874</t>
+  </si>
+  <si>
+    <t>iron(iii) picolinate</t>
+  </si>
+  <si>
+    <t>22562349</t>
+  </si>
+  <si>
+    <t>15775009</t>
+  </si>
+  <si>
+    <t>2531316</t>
+  </si>
+  <si>
+    <t>picolinic acid, hydrochloride</t>
+  </si>
+  <si>
+    <t>22562341</t>
+  </si>
+  <si>
+    <t>15774995</t>
+  </si>
+  <si>
+    <t>4048501</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide</t>
+  </si>
+  <si>
+    <t>17479199</t>
+  </si>
+  <si>
+    <t>84862354</t>
+  </si>
+  <si>
+    <t>5058792</t>
+  </si>
+  <si>
+    <t>ascorbic acid</t>
+  </si>
+  <si>
+    <t>17458592</t>
+  </si>
+  <si>
+    <t>18482827</t>
+  </si>
+  <si>
+    <t>19400927</t>
+  </si>
+  <si>
+    <t>12733020</t>
+  </si>
+  <si>
+    <t>83584762</t>
+  </si>
+  <si>
+    <t>prevents</t>
+  </si>
+  <si>
+    <t>83584821</t>
+  </si>
+  <si>
+    <t>85873194</t>
   </si>
   <si>
     <t>463661</t>
@@ -308,16 +563,16 @@
     <t>hybrin</t>
   </si>
   <si>
-    <t>84022219</t>
-  </si>
-  <si>
-    <t>83439990</t>
-  </si>
-  <si>
-    <t>84133312</t>
-  </si>
-  <si>
-    <t>79140801</t>
+    <t>17458721</t>
+  </si>
+  <si>
+    <t>18482830</t>
+  </si>
+  <si>
+    <t>19401252</t>
+  </si>
+  <si>
+    <t>12733055</t>
   </si>
   <si>
     <t>461003</t>
@@ -326,16 +581,16 @@
     <t>magnorbin</t>
   </si>
   <si>
-    <t>84022223</t>
-  </si>
-  <si>
-    <t>83440243</t>
-  </si>
-  <si>
-    <t>84133407</t>
-  </si>
-  <si>
-    <t>79140812</t>
+    <t>19401371</t>
+  </si>
+  <si>
+    <t>17458753</t>
+  </si>
+  <si>
+    <t>18482832</t>
+  </si>
+  <si>
+    <t>12733073</t>
   </si>
   <si>
     <t>4040980</t>
@@ -344,16 +599,16 @@
     <t>ferrous ascorbate</t>
   </si>
   <si>
-    <t>84022215</t>
-  </si>
-  <si>
-    <t>83439829</t>
-  </si>
-  <si>
-    <t>84133235</t>
-  </si>
-  <si>
-    <t>79140795</t>
+    <t>17458512</t>
+  </si>
+  <si>
+    <t>19400852</t>
+  </si>
+  <si>
+    <t>18482825</t>
+  </si>
+  <si>
+    <t>12733002</t>
   </si>
   <si>
     <t>3386626</t>
@@ -362,16 +617,16 @@
     <t>sodium ascorbate</t>
   </si>
   <si>
-    <t>83440378</t>
-  </si>
-  <si>
-    <t>84022225</t>
-  </si>
-  <si>
-    <t>84133447</t>
-  </si>
-  <si>
-    <t>79140820</t>
+    <t>19401478</t>
+  </si>
+  <si>
+    <t>18482834</t>
+  </si>
+  <si>
+    <t>17458807</t>
+  </si>
+  <si>
+    <t>12733089</t>
   </si>
   <si>
     <t>229747</t>
@@ -380,121 +635,151 @@
     <t>magnesium ascorbate</t>
   </si>
   <si>
-    <t>83440100</t>
-  </si>
-  <si>
-    <t>84022221</t>
-  </si>
-  <si>
-    <t>84133366</t>
-  </si>
-  <si>
-    <t>79140806</t>
-  </si>
-  <si>
-    <t>4034328</t>
-  </si>
-  <si>
-    <t>deferoxamine</t>
-  </si>
-  <si>
-    <t>83327491</t>
-  </si>
-  <si>
-    <t>80905925</t>
-  </si>
-  <si>
-    <t>172665892</t>
-  </si>
-  <si>
-    <t>80905962</t>
-  </si>
-  <si>
-    <t>157514539</t>
-  </si>
-  <si>
-    <t>does not affect</t>
-  </si>
-  <si>
-    <t>172690667</t>
-  </si>
-  <si>
-    <t>5058792</t>
-  </si>
-  <si>
-    <t>ascorbic acid</t>
-  </si>
-  <si>
-    <t>84133273</t>
-  </si>
-  <si>
-    <t>84022217</t>
-  </si>
-  <si>
-    <t>83439905</t>
-  </si>
-  <si>
-    <t>152244882</t>
-  </si>
-  <si>
-    <t>149961486</t>
-  </si>
-  <si>
-    <t>prevents</t>
-  </si>
-  <si>
-    <t>149961567</t>
-  </si>
-  <si>
-    <t>79140798</t>
-  </si>
-  <si>
-    <t>1658339</t>
-  </si>
-  <si>
-    <t>nfkb1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85531782</t>
-  </si>
-  <si>
-    <t>174748560</t>
-  </si>
-  <si>
-    <t>832402</t>
-  </si>
-  <si>
-    <t>quercetin</t>
-  </si>
-  <si>
-    <t>84535279</t>
-  </si>
-  <si>
-    <t>82527206</t>
-  </si>
-  <si>
-    <t>2789017</t>
-  </si>
-  <si>
-    <t>cd44 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>86657950</t>
-  </si>
-  <si>
-    <t>90683424</t>
-  </si>
-  <si>
-    <t>1657979</t>
-  </si>
-  <si>
-    <t>nos2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84695176</t>
-  </si>
-  <si>
-    <t>90709853</t>
+    <t>18482828</t>
+  </si>
+  <si>
+    <t>19401108</t>
+  </si>
+  <si>
+    <t>17458643</t>
+  </si>
+  <si>
+    <t>12733038</t>
+  </si>
+  <si>
+    <t>2787212</t>
+  </si>
+  <si>
+    <t>g6pd (homo sapiens)</t>
+  </si>
+  <si>
+    <t>17305959</t>
+  </si>
+  <si>
+    <t>24360952</t>
+  </si>
+  <si>
+    <t>1569957</t>
+  </si>
+  <si>
+    <t>crp (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18998575</t>
+  </si>
+  <si>
+    <t>28330425</t>
+  </si>
+  <si>
+    <t>2279129</t>
+  </si>
+  <si>
+    <t>spp1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>19687561</t>
+  </si>
+  <si>
+    <t>24381220</t>
+  </si>
+  <si>
+    <t>3015980</t>
+  </si>
+  <si>
+    <t>gsk3b (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22487447</t>
+  </si>
+  <si>
+    <t>is tributary of</t>
+  </si>
+  <si>
+    <t>24366917</t>
+  </si>
+  <si>
+    <t>2787803</t>
+  </si>
+  <si>
+    <t>ifna2 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>18978437</t>
+  </si>
+  <si>
+    <t>24325786</t>
+  </si>
+  <si>
+    <t>400566</t>
+  </si>
+  <si>
+    <t>chromium</t>
+  </si>
+  <si>
+    <t>22261634</t>
+  </si>
+  <si>
+    <t>129453828</t>
+  </si>
+  <si>
+    <t>111931</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>17824281</t>
+  </si>
+  <si>
+    <t>71477266</t>
+  </si>
+  <si>
+    <t>2792317</t>
+  </si>
+  <si>
+    <t>il6 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>20695158</t>
+  </si>
+  <si>
+    <t>28410814</t>
+  </si>
+  <si>
+    <t>28410816</t>
+  </si>
+  <si>
+    <t>24332044</t>
+  </si>
+  <si>
+    <t>1660122</t>
+  </si>
+  <si>
+    <t>klk1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>22902221</t>
+  </si>
+  <si>
+    <t>24339081</t>
+  </si>
+  <si>
+    <t>28330741</t>
+  </si>
+  <si>
+    <t>644556</t>
+  </si>
+  <si>
+    <t>copper sulfate</t>
+  </si>
+  <si>
+    <t>17479741</t>
+  </si>
+  <si>
+    <t>14486475</t>
+  </si>
+  <si>
+    <t>95497021</t>
   </si>
   <si>
     <t>2792087</t>
@@ -503,298 +788,13 @@
     <t>cxcl8 (homo sapiens)</t>
   </si>
   <si>
-    <t>85194385</t>
-  </si>
-  <si>
-    <t>90120681</t>
-  </si>
-  <si>
-    <t>94953784</t>
-  </si>
-  <si>
-    <t>2791205</t>
-  </si>
-  <si>
-    <t>tlr2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>87614633</t>
-  </si>
-  <si>
-    <t>94711906</t>
-  </si>
-  <si>
-    <t>94711905</t>
-  </si>
-  <si>
-    <t>2786023</t>
-  </si>
-  <si>
-    <t>il1b (homo sapiens)</t>
-  </si>
-  <si>
-    <t>83439767</t>
-  </si>
-  <si>
-    <t>94635511</t>
-  </si>
-  <si>
-    <t>94635513</t>
-  </si>
-  <si>
-    <t>570126</t>
-  </si>
-  <si>
-    <t>picolinic acid</t>
-  </si>
-  <si>
-    <t>88040609</t>
-  </si>
-  <si>
-    <t>82039726</t>
-  </si>
-  <si>
-    <t>548478</t>
-  </si>
-  <si>
-    <t>calcium dipicolinate trihydrate</t>
-  </si>
-  <si>
-    <t>88040611</t>
-  </si>
-  <si>
-    <t>82039735</t>
-  </si>
-  <si>
-    <t>5244868</t>
-  </si>
-  <si>
-    <t>zinc picolinate</t>
-  </si>
-  <si>
-    <t>88040615</t>
-  </si>
-  <si>
-    <t>82039752</t>
-  </si>
-  <si>
-    <t>523228</t>
-  </si>
-  <si>
-    <t>nickel</t>
-  </si>
-  <si>
-    <t>87449329</t>
-  </si>
-  <si>
-    <t>81136406</t>
-  </si>
-  <si>
-    <t>5042477</t>
-  </si>
-  <si>
-    <t>picolinate</t>
-  </si>
-  <si>
-    <t>88040613</t>
-  </si>
-  <si>
-    <t>82039744</t>
-  </si>
-  <si>
-    <t>262356</t>
-  </si>
-  <si>
-    <t>chromium picolinate</t>
-  </si>
-  <si>
-    <t>88040605</t>
-  </si>
-  <si>
-    <t>82039708</t>
-  </si>
-  <si>
-    <t>2567778</t>
-  </si>
-  <si>
-    <t>picolinic acid, sodium salt</t>
-  </si>
-  <si>
-    <t>88040619</t>
-  </si>
-  <si>
-    <t>82039769</t>
-  </si>
-  <si>
-    <t>2532874</t>
-  </si>
-  <si>
-    <t>iron(iii) picolinate</t>
-  </si>
-  <si>
-    <t>88040617</t>
-  </si>
-  <si>
-    <t>82039760</t>
-  </si>
-  <si>
-    <t>2531316</t>
-  </si>
-  <si>
-    <t>picolinic acid, hydrochloride</t>
-  </si>
-  <si>
-    <t>88040607</t>
-  </si>
-  <si>
-    <t>82039717</t>
-  </si>
-  <si>
-    <t>4048501</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide</t>
-  </si>
-  <si>
-    <t>83734302</t>
-  </si>
-  <si>
-    <t>149361867</t>
-  </si>
-  <si>
-    <t>2792317</t>
-  </si>
-  <si>
-    <t>il6 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>85951017</t>
-  </si>
-  <si>
-    <t>94783720</t>
-  </si>
-  <si>
-    <t>94783721</t>
-  </si>
-  <si>
-    <t>90685276</t>
-  </si>
-  <si>
-    <t>1660122</t>
-  </si>
-  <si>
-    <t>klk1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>88686954</t>
-  </si>
-  <si>
-    <t>90692377</t>
-  </si>
-  <si>
-    <t>94711658</t>
-  </si>
-  <si>
-    <t>2787212</t>
-  </si>
-  <si>
-    <t>g6pd (homo sapiens)</t>
-  </si>
-  <si>
-    <t>90482497</t>
-  </si>
-  <si>
-    <t>90714046</t>
-  </si>
-  <si>
-    <t>1569957</t>
-  </si>
-  <si>
-    <t>crp (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84311882</t>
-  </si>
-  <si>
-    <t>94711326</t>
-  </si>
-  <si>
-    <t>2279129</t>
-  </si>
-  <si>
-    <t>spp1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>84566204</t>
-  </si>
-  <si>
-    <t>90734230</t>
-  </si>
-  <si>
-    <t>3015980</t>
-  </si>
-  <si>
-    <t>gsk3b (homo sapiens)</t>
-  </si>
-  <si>
-    <t>88178950</t>
-  </si>
-  <si>
-    <t>is tributary of</t>
-  </si>
-  <si>
-    <t>90720092</t>
-  </si>
-  <si>
-    <t>2787803</t>
-  </si>
-  <si>
-    <t>ifna2 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>83623970</t>
-  </si>
-  <si>
-    <t>90678895</t>
-  </si>
-  <si>
-    <t>400566</t>
-  </si>
-  <si>
-    <t>chromium</t>
-  </si>
-  <si>
-    <t>88375201</t>
-  </si>
-  <si>
-    <t>195659732</t>
-  </si>
-  <si>
-    <t>111931</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>89294519</t>
-  </si>
-  <si>
-    <t>135331877</t>
-  </si>
-  <si>
-    <t>644556</t>
-  </si>
-  <si>
-    <t>copper sulfate</t>
-  </si>
-  <si>
-    <t>83734632</t>
-  </si>
-  <si>
-    <t>161636332</t>
-  </si>
-  <si>
-    <t>80695171</t>
+    <t>19477659</t>
+  </si>
+  <si>
+    <t>18131581</t>
+  </si>
+  <si>
+    <t>28598919</t>
   </si>
   <si>
     <t>783926</t>
@@ -803,10 +803,10 @@
     <t>versenate</t>
   </si>
   <si>
-    <t>84735827</t>
-  </si>
-  <si>
-    <t>81762743</t>
+    <t>18343560</t>
+  </si>
+  <si>
+    <t>15551514</t>
   </si>
   <si>
     <t>775565</t>
@@ -815,10 +815,10 @@
     <t>edetic acid, calcium, sodium salt</t>
   </si>
   <si>
-    <t>84735796</t>
-  </si>
-  <si>
-    <t>81762702</t>
+    <t>18343555</t>
+  </si>
+  <si>
+    <t>15551474</t>
   </si>
   <si>
     <t>759692</t>
@@ -827,10 +827,10 @@
     <t>edetic acid, calcium salt</t>
   </si>
   <si>
-    <t>84735917</t>
-  </si>
-  <si>
-    <t>81762869</t>
+    <t>18343579</t>
+  </si>
+  <si>
+    <t>15551630</t>
   </si>
   <si>
     <t>700918</t>
@@ -839,10 +839,10 @@
     <t>copper edta</t>
   </si>
   <si>
-    <t>84735866</t>
-  </si>
-  <si>
-    <t>81762794</t>
+    <t>18343566</t>
+  </si>
+  <si>
+    <t>15551564</t>
   </si>
   <si>
     <t>651314</t>
@@ -851,10 +851,10 @@
     <t>magnesium disodium edta</t>
   </si>
   <si>
-    <t>84735886</t>
-  </si>
-  <si>
-    <t>81762819</t>
+    <t>18343569</t>
+  </si>
+  <si>
+    <t>15551588</t>
   </si>
   <si>
     <t>64635</t>
@@ -863,10 +863,10 @@
     <t>versene</t>
   </si>
   <si>
-    <t>84735817</t>
-  </si>
-  <si>
-    <t>81762727</t>
+    <t>18343558</t>
+  </si>
+  <si>
+    <t>15551498</t>
   </si>
   <si>
     <t>6121181</t>
@@ -875,10 +875,10 @@
     <t>calcium tetacine</t>
   </si>
   <si>
-    <t>84735920</t>
-  </si>
-  <si>
-    <t>81762879</t>
+    <t>18343580</t>
+  </si>
+  <si>
+    <t>15551636</t>
   </si>
   <si>
     <t>5796416</t>
@@ -887,10 +887,10 @@
     <t>edetates</t>
   </si>
   <si>
-    <t>84735924</t>
-  </si>
-  <si>
-    <t>81762887</t>
+    <t>18343581</t>
+  </si>
+  <si>
+    <t>15551641</t>
   </si>
   <si>
     <t>544340</t>
@@ -899,10 +899,10 @@
     <t>calcium disodium versenate</t>
   </si>
   <si>
-    <t>84735941</t>
-  </si>
-  <si>
-    <t>81762904</t>
+    <t>18343585</t>
+  </si>
+  <si>
+    <t>15551651</t>
   </si>
   <si>
     <t>5310883</t>
@@ -911,10 +911,10 @@
     <t>coprin</t>
   </si>
   <si>
-    <t>84735908</t>
-  </si>
-  <si>
-    <t>81762852</t>
+    <t>18343575</t>
+  </si>
+  <si>
+    <t>15551611</t>
   </si>
   <si>
     <t>4975138</t>
@@ -923,10 +923,10 @@
     <t>edetic acid, chromium salt</t>
   </si>
   <si>
-    <t>84735929</t>
-  </si>
-  <si>
-    <t>81762896</t>
+    <t>18343583</t>
+  </si>
+  <si>
+    <t>15551645</t>
   </si>
   <si>
     <t>4869799</t>
@@ -935,10 +935,10 @@
     <t>chelaton 3</t>
   </si>
   <si>
-    <t>84735852</t>
-  </si>
-  <si>
-    <t>81762777</t>
+    <t>18343564</t>
+  </si>
+  <si>
+    <t>15551548</t>
   </si>
   <si>
     <t>460681</t>
@@ -947,10 +947,10 @@
     <t>tetracemate</t>
   </si>
   <si>
-    <t>84735811</t>
-  </si>
-  <si>
-    <t>81762718</t>
+    <t>18343557</t>
+  </si>
+  <si>
+    <t>15551491</t>
   </si>
   <si>
     <t>429262</t>
@@ -959,10 +959,10 @@
     <t>edetic acid, disodium salt</t>
   </si>
   <si>
-    <t>84735787</t>
-  </si>
-  <si>
-    <t>81762686</t>
+    <t>18343554</t>
+  </si>
+  <si>
+    <t>15551465</t>
   </si>
   <si>
     <t>4041998</t>
@@ -971,10 +971,10 @@
     <t>edetate calcium disodium</t>
   </si>
   <si>
-    <t>84735873</t>
-  </si>
-  <si>
-    <t>81762803</t>
+    <t>18343567</t>
+  </si>
+  <si>
+    <t>15551572</t>
   </si>
   <si>
     <t>4040902</t>
@@ -983,10 +983,10 @@
     <t>dicobalt edta</t>
   </si>
   <si>
-    <t>84735892</t>
-  </si>
-  <si>
-    <t>81762827</t>
+    <t>18343571</t>
+  </si>
+  <si>
+    <t>15551596</t>
   </si>
   <si>
     <t>4034857</t>
@@ -995,10 +995,10 @@
     <t>edetic acid</t>
   </si>
   <si>
-    <t>84735836</t>
-  </si>
-  <si>
-    <t>81762760</t>
+    <t>18343561</t>
+  </si>
+  <si>
+    <t>15551523</t>
   </si>
   <si>
     <t>4034285</t>
@@ -1007,10 +1007,10 @@
     <t>gallium edta</t>
   </si>
   <si>
-    <t>84735880</t>
-  </si>
-  <si>
-    <t>81762811</t>
+    <t>18343568</t>
+  </si>
+  <si>
+    <t>15551580</t>
   </si>
   <si>
     <t>4027100</t>
@@ -1019,10 +1019,10 @@
     <t>edetic acid, potassium salt</t>
   </si>
   <si>
-    <t>84735845</t>
-  </si>
-  <si>
-    <t>81762768</t>
+    <t>18343563</t>
+  </si>
+  <si>
+    <t>15551539</t>
   </si>
   <si>
     <t>3814936</t>
@@ -1031,10 +1031,10 @@
     <t>stannous edta</t>
   </si>
   <si>
-    <t>84735904</t>
-  </si>
-  <si>
-    <t>81762844</t>
+    <t>18343576</t>
+  </si>
+  <si>
+    <t>15551618</t>
   </si>
   <si>
     <t>3387071</t>
@@ -1043,10 +1043,10 @@
     <t>edetic acid, disodium salt, dihydrate</t>
   </si>
   <si>
-    <t>84735859</t>
-  </si>
-  <si>
-    <t>81762786</t>
+    <t>18343565</t>
+  </si>
+  <si>
+    <t>15551556</t>
   </si>
   <si>
     <t>3387020</t>
@@ -1055,10 +1055,10 @@
     <t>edetic acid, monopotassium salt</t>
   </si>
   <si>
-    <t>84735946</t>
-  </si>
-  <si>
-    <t>81762913</t>
+    <t>18343588</t>
+  </si>
+  <si>
+    <t>15551656</t>
   </si>
   <si>
     <t>3387017</t>
@@ -1067,10 +1067,10 @@
     <t>edetic acid, sodium salt</t>
   </si>
   <si>
-    <t>84735791</t>
-  </si>
-  <si>
-    <t>81762693</t>
+    <t>18343553</t>
+  </si>
+  <si>
+    <t>15551456</t>
   </si>
   <si>
     <t>3386743</t>
@@ -1079,10 +1079,10 @@
     <t>edetic acid, monosodium salt</t>
   </si>
   <si>
-    <t>84735822</t>
-  </si>
-  <si>
-    <t>81762735</t>
+    <t>18343559</t>
+  </si>
+  <si>
+    <t>15551506</t>
   </si>
   <si>
     <t>3386708</t>
@@ -1091,10 +1091,10 @@
     <t>edetic acid, disodium, monopotassium salt</t>
   </si>
   <si>
-    <t>84735913</t>
-  </si>
-  <si>
-    <t>81762860</t>
+    <t>18343578</t>
+  </si>
+  <si>
+    <t>15551626</t>
   </si>
   <si>
     <t>3386624</t>
@@ -1103,10 +1103,10 @@
     <t>edetic acid, magnesium salt</t>
   </si>
   <si>
-    <t>84735802</t>
-  </si>
-  <si>
-    <t>81762710</t>
+    <t>18343556</t>
+  </si>
+  <si>
+    <t>15551482</t>
   </si>
   <si>
     <t>3386612</t>
@@ -1115,10 +1115,10 @@
     <t>edetic acid, dipotassium salt</t>
   </si>
   <si>
-    <t>84735898</t>
-  </si>
-  <si>
-    <t>81762835</t>
+    <t>18343573</t>
+  </si>
+  <si>
+    <t>15551603</t>
   </si>
   <si>
     <t>290303</t>
@@ -1127,10 +1127,10 @@
     <t>distannous edta</t>
   </si>
   <si>
-    <t>84735781</t>
-  </si>
-  <si>
-    <t>81762677</t>
+    <t>18343552</t>
+  </si>
+  <si>
+    <t>15551446</t>
   </si>
   <si>
     <t>2435801</t>
@@ -1139,10 +1139,10 @@
     <t>disodium calcitetracemate</t>
   </si>
   <si>
-    <t>84735829</t>
-  </si>
-  <si>
-    <t>81762751</t>
+    <t>18343562</t>
+  </si>
+  <si>
+    <t>15551531</t>
   </si>
   <si>
     <t>1569150</t>
@@ -1151,10 +1151,10 @@
     <t>cat (homo sapiens)</t>
   </si>
   <si>
-    <t>88751604</t>
-  </si>
-  <si>
-    <t>94953576</t>
+    <t>22767847</t>
+  </si>
+  <si>
+    <t>28598698</t>
   </si>
   <si>
     <t>836316</t>
@@ -1163,22 +1163,34 @@
     <t>blood coagulation disorders</t>
   </si>
   <si>
-    <t>82057049</t>
-  </si>
-  <si>
-    <t>154218113</t>
+    <t>15850015</t>
+  </si>
+  <si>
+    <t>53731869</t>
   </si>
   <si>
     <t>coexists with</t>
   </si>
   <si>
-    <t>156962067</t>
-  </si>
-  <si>
-    <t>120076058</t>
-  </si>
-  <si>
-    <t>163727387</t>
+    <t>97536093</t>
+  </si>
+  <si>
+    <t>88029217</t>
+  </si>
+  <si>
+    <t>90734270</t>
+  </si>
+  <si>
+    <t>775268</t>
+  </si>
+  <si>
+    <t>duodenal ulcer</t>
+  </si>
+  <si>
+    <t>15850082</t>
+  </si>
+  <si>
+    <t>122020979</t>
   </si>
   <si>
     <t>45119</t>
@@ -1187,67 +1199,55 @@
     <t>inflammation</t>
   </si>
   <si>
-    <t>82057199</t>
-  </si>
-  <si>
-    <t>169879193</t>
-  </si>
-  <si>
-    <t>163645004</t>
-  </si>
-  <si>
-    <t>126214398</t>
-  </si>
-  <si>
-    <t>186700203</t>
+    <t>15850170</t>
+  </si>
+  <si>
+    <t>97439047</t>
+  </si>
+  <si>
+    <t>86067221</t>
+  </si>
+  <si>
+    <t>67729507</t>
+  </si>
+  <si>
+    <t>59822155</t>
+  </si>
+  <si>
+    <t>103650816</t>
+  </si>
+  <si>
+    <t>120560297</t>
   </si>
   <si>
     <t>predisposes</t>
   </si>
   <si>
-    <t>134116536</t>
-  </si>
-  <si>
-    <t>152448831</t>
-  </si>
-  <si>
-    <t>775268</t>
-  </si>
-  <si>
-    <t>duodenal ulcer</t>
-  </si>
-  <si>
-    <t>82057106</t>
-  </si>
-  <si>
-    <t>188226794</t>
-  </si>
-  <si>
     <t>432075</t>
   </si>
   <si>
     <t>anemia</t>
   </si>
   <si>
-    <t>82056948</t>
-  </si>
-  <si>
-    <t>154654970</t>
-  </si>
-  <si>
-    <t>163395386</t>
-  </si>
-  <si>
-    <t>163486997</t>
+    <t>15849938</t>
+  </si>
+  <si>
+    <t>79027637</t>
+  </si>
+  <si>
+    <t>88466104</t>
+  </si>
+  <si>
+    <t>97187401</t>
+  </si>
+  <si>
+    <t>97290479</t>
   </si>
   <si>
     <t>occurs in</t>
   </si>
   <si>
-    <t>145512159</t>
-  </si>
-  <si>
-    <t>154298441</t>
+    <t>88093655</t>
   </si>
   <si>
     <t>2791109</t>
@@ -1256,10 +1256,10 @@
     <t>cdkn1a (homo sapiens)</t>
   </si>
   <si>
-    <t>84549772</t>
-  </si>
-  <si>
-    <t>166075813</t>
+    <t>18650997</t>
+  </si>
+  <si>
+    <t>99882417</t>
   </si>
   <si>
     <t>4028538</t>
@@ -1268,10 +1268,10 @@
     <t>linoleic acid</t>
   </si>
   <si>
-    <t>88624973</t>
-  </si>
-  <si>
-    <t>157940873</t>
+    <t>23008738</t>
+  </si>
+  <si>
+    <t>91771134</t>
   </si>
   <si>
     <t>6127587</t>
@@ -1280,10 +1280,10 @@
     <t>arachidonic acid</t>
   </si>
   <si>
-    <t>84021830</t>
-  </si>
-  <si>
-    <t>159857639</t>
+    <t>18482306</t>
+  </si>
+  <si>
+    <t>93666902</t>
   </si>
   <si>
     <t>4034062</t>
@@ -1292,10 +1292,10 @@
     <t>docosahexaenoic acids</t>
   </si>
   <si>
-    <t>87157717</t>
-  </si>
-  <si>
-    <t>179720331</t>
+    <t>21368762</t>
+  </si>
+  <si>
+    <t>113593672</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1595,7 @@
         <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1689,18 +1689,18 @@
         <v>82</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>154.0</v>
+        <v>142.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1718,7 +1718,7 @@
         <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
@@ -1733,48 +1733,42 @@
         <v>86</v>
       </c>
       <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>60</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>89</v>
       </c>
-      <c r="P6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" t="s">
         <v>90</v>
       </c>
-      <c r="R6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s">
         <v>91</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>92</v>
-      </c>
-      <c r="U6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>152.0</v>
+        <v>127.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1786,51 +1780,69 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" t="s">
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="P7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>99</v>
       </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="R7" t="s">
         <v>100</v>
       </c>
-      <c r="P7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>101</v>
       </c>
-      <c r="R7" t="s">
-        <v>78</v>
+      <c r="T7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" t="s">
+        <v>102</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>152.0</v>
+        <v>105.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1842,13 +1854,13 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -1860,33 +1872,21 @@
         <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>152.0</v>
+        <v>88.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1898,10 +1898,10 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -1916,33 +1916,21 @@
         <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
-      </c>
-      <c r="O9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>152.0</v>
+        <v>88.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1954,51 +1942,39 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="s">
         <v>116</v>
       </c>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" t="s">
-        <v>117</v>
-      </c>
       <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" t="s">
-        <v>118</v>
-      </c>
-      <c r="P10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>119</v>
-      </c>
-      <c r="R10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>152.0</v>
+        <v>88.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -2010,51 +1986,39 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
         <v>120</v>
       </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" t="s">
-        <v>123</v>
-      </c>
       <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
-        <v>124</v>
-      </c>
-      <c r="P11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>142.0</v>
+        <v>73.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -2066,13 +2030,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -2084,45 +2048,27 @@
         <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>131</v>
-      </c>
-      <c r="R12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s">
-        <v>132</v>
-      </c>
-      <c r="T12" t="s">
-        <v>133</v>
-      </c>
-      <c r="U12" t="s">
-        <v>134</v>
-      </c>
-      <c r="V12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>136.0</v>
+        <v>73.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2134,13 +2080,13 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
         <v>56</v>
@@ -2152,51 +2098,27 @@
         <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>140</v>
-      </c>
-      <c r="R13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" t="s">
-        <v>142</v>
-      </c>
-      <c r="U13" t="s">
-        <v>143</v>
-      </c>
-      <c r="V13" t="s">
-        <v>64</v>
-      </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105.0</v>
+        <v>56.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2208,13 +2130,13 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2226,21 +2148,21 @@
         <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>88.0</v>
+        <v>56.0</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
@@ -2252,10 +2174,10 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -2270,21 +2192,21 @@
         <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
         <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>88.0</v>
+        <v>56.0</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
@@ -2296,13 +2218,13 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -2314,21 +2236,21 @@
         <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>88.0</v>
+        <v>56.0</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2340,13 +2262,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
@@ -2358,21 +2280,21 @@
         <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2384,13 +2306,13 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>56</v>
@@ -2402,27 +2324,21 @@
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
         <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="N18" t="s">
-        <v>87</v>
-      </c>
-      <c r="O18" t="s">
-        <v>165</v>
-      </c>
-      <c r="P18" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2434,13 +2350,13 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -2452,27 +2368,21 @@
         <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="N19" t="s">
-        <v>94</v>
-      </c>
-      <c r="O19" t="s">
-        <v>170</v>
-      </c>
-      <c r="P19" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2484,13 +2394,13 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>56</v>
@@ -2502,22 +2412,16 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M20" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="N20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" t="s">
-        <v>175</v>
-      </c>
-      <c r="P20" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -2534,10 +2438,10 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
@@ -2552,16 +2456,16 @@
         <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s">
         <v>70</v>
       </c>
       <c r="M21" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -2578,10 +2482,10 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -2596,21 +2500,21 @@
         <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s">
         <v>70</v>
       </c>
       <c r="M22" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -2622,10 +2526,10 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -2640,21 +2544,21 @@
         <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -2666,10 +2570,10 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -2684,21 +2588,51 @@
         <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M24" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="N24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>176</v>
+      </c>
+      <c r="R24" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" t="s">
+        <v>177</v>
+      </c>
+      <c r="T24" t="s">
+        <v>178</v>
+      </c>
+      <c r="U24" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" t="s">
+        <v>180</v>
+      </c>
+      <c r="X24" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -2710,10 +2644,10 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
         <v>52</v>
@@ -2728,21 +2662,33 @@
         <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M25" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>186</v>
+      </c>
+      <c r="R25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -2754,10 +2700,10 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -2772,21 +2718,33 @@
         <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s">
         <v>70</v>
       </c>
       <c r="M26" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="N26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>192</v>
+      </c>
+      <c r="R26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -2798,10 +2756,10 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
         <v>52</v>
@@ -2816,21 +2774,33 @@
         <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" t="s">
+        <v>197</v>
+      </c>
+      <c r="P27" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>198</v>
+      </c>
+      <c r="R27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -2842,39 +2812,51 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>201</v>
+      </c>
+      <c r="L28" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" t="s">
+        <v>203</v>
+      </c>
+      <c r="P28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" t="s">
         <v>204</v>
       </c>
-      <c r="F28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" t="s">
-        <v>207</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56.0</v>
+        <v>52.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -2886,39 +2868,51 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" t="s">
         <v>208</v>
       </c>
-      <c r="F29" t="s">
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" t="s">
         <v>209</v>
       </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="P29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" t="s">
         <v>210</v>
       </c>
-      <c r="L29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" t="s">
-        <v>211</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="R29" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2930,39 +2924,39 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" t="s">
         <v>212</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" t="s">
         <v>213</v>
       </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" t="s">
         <v>214</v>
       </c>
-      <c r="L30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" t="s">
-        <v>215</v>
-      </c>
       <c r="N30" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -2974,10 +2968,10 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" t="s">
         <v>216</v>
-      </c>
-      <c r="F31" t="s">
-        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>55</v>
@@ -2992,33 +2986,21 @@
         <v>58</v>
       </c>
       <c r="K31" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="s">
         <v>218</v>
       </c>
-      <c r="L31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" t="s">
-        <v>219</v>
-      </c>
       <c r="N31" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" t="s">
-        <v>220</v>
-      </c>
-      <c r="P31" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>221</v>
-      </c>
-      <c r="R31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50.0</v>
+        <v>44.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -3030,10 +3012,10 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
         <v>55</v>
@@ -3048,27 +3030,21 @@
         <v>58</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s">
         <v>70</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N32" t="s">
-        <v>62</v>
-      </c>
-      <c r="O32" t="s">
-        <v>226</v>
-      </c>
-      <c r="P32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -3080,10 +3056,10 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -3098,21 +3074,21 @@
         <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="M33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -3124,10 +3100,10 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G34" t="s">
         <v>55</v>
@@ -3142,13 +3118,13 @@
         <v>58</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s">
         <v>70</v>
       </c>
       <c r="M34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N34" t="s">
         <v>66</v>
@@ -3156,7 +3132,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>44.0</v>
+        <v>37.0</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -3168,39 +3144,39 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" t="s">
         <v>235</v>
       </c>
-      <c r="F35" t="s">
-        <v>236</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" t="s">
-        <v>237</v>
-      </c>
-      <c r="L35" t="s">
-        <v>70</v>
-      </c>
-      <c r="M35" t="s">
-        <v>238</v>
-      </c>
       <c r="N35" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -3212,39 +3188,39 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" t="s">
         <v>239</v>
       </c>
-      <c r="F36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" t="s">
-        <v>241</v>
-      </c>
-      <c r="L36" t="s">
-        <v>242</v>
-      </c>
-      <c r="M36" t="s">
-        <v>243</v>
-      </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -3256,10 +3232,10 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G37" t="s">
         <v>55</v>
@@ -3274,21 +3250,33 @@
         <v>58</v>
       </c>
       <c r="K37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s">
         <v>70</v>
       </c>
       <c r="M37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N37" t="s">
+        <v>62</v>
+      </c>
+      <c r="O37" t="s">
+        <v>244</v>
+      </c>
+      <c r="P37" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>245</v>
+      </c>
+      <c r="R37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3300,39 +3288,45 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
         <v>248</v>
       </c>
-      <c r="F38" t="s">
+      <c r="L38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" t="s">
         <v>249</v>
       </c>
-      <c r="G38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="N38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38" t="s">
         <v>250</v>
       </c>
-      <c r="L38" t="s">
-        <v>70</v>
-      </c>
-      <c r="M38" t="s">
-        <v>251</v>
-      </c>
-      <c r="N38" t="s">
-        <v>92</v>
+      <c r="P38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -3344,39 +3338,45 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" t="s">
         <v>252</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" t="s">
         <v>253</v>
       </c>
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" t="s">
         <v>254</v>
       </c>
-      <c r="L39" t="s">
-        <v>87</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39" t="s">
         <v>255</v>
       </c>
-      <c r="N39" t="s">
-        <v>92</v>
+      <c r="P39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
@@ -3394,7 +3394,7 @@
         <v>257</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
         <v>56</v>
@@ -3409,19 +3409,19 @@
         <v>258</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M40" t="s">
         <v>259</v>
       </c>
       <c r="N40" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O40" t="s">
         <v>260</v>
       </c>
       <c r="P40" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -3465,7 +3465,7 @@
         <v>264</v>
       </c>
       <c r="N41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -3509,7 +3509,7 @@
         <v>268</v>
       </c>
       <c r="N42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -3553,7 +3553,7 @@
         <v>272</v>
       </c>
       <c r="N43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -3597,7 +3597,7 @@
         <v>276</v>
       </c>
       <c r="N44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
@@ -3641,7 +3641,7 @@
         <v>280</v>
       </c>
       <c r="N45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
@@ -3685,7 +3685,7 @@
         <v>284</v>
       </c>
       <c r="N46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
@@ -3729,7 +3729,7 @@
         <v>288</v>
       </c>
       <c r="N47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -3773,7 +3773,7 @@
         <v>292</v>
       </c>
       <c r="N48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -3817,7 +3817,7 @@
         <v>296</v>
       </c>
       <c r="N49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -3861,7 +3861,7 @@
         <v>300</v>
       </c>
       <c r="N50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -3905,7 +3905,7 @@
         <v>304</v>
       </c>
       <c r="N51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -3949,7 +3949,7 @@
         <v>308</v>
       </c>
       <c r="N52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -3993,7 +3993,7 @@
         <v>312</v>
       </c>
       <c r="N53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -4037,7 +4037,7 @@
         <v>316</v>
       </c>
       <c r="N54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
@@ -4081,7 +4081,7 @@
         <v>320</v>
       </c>
       <c r="N55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
@@ -4125,7 +4125,7 @@
         <v>324</v>
       </c>
       <c r="N56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -4169,7 +4169,7 @@
         <v>328</v>
       </c>
       <c r="N57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
@@ -4213,7 +4213,7 @@
         <v>332</v>
       </c>
       <c r="N58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -4257,7 +4257,7 @@
         <v>336</v>
       </c>
       <c r="N59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
@@ -4301,7 +4301,7 @@
         <v>340</v>
       </c>
       <c r="N60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
@@ -4345,7 +4345,7 @@
         <v>344</v>
       </c>
       <c r="N61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -4389,7 +4389,7 @@
         <v>348</v>
       </c>
       <c r="N62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
@@ -4433,7 +4433,7 @@
         <v>352</v>
       </c>
       <c r="N63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
@@ -4477,7 +4477,7 @@
         <v>356</v>
       </c>
       <c r="N64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
@@ -4521,7 +4521,7 @@
         <v>360</v>
       </c>
       <c r="N65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
@@ -4565,7 +4565,7 @@
         <v>364</v>
       </c>
       <c r="N66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -4609,7 +4609,7 @@
         <v>368</v>
       </c>
       <c r="N67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
@@ -4653,7 +4653,7 @@
         <v>372</v>
       </c>
       <c r="N68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
@@ -4697,7 +4697,7 @@
         <v>376</v>
       </c>
       <c r="N69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
@@ -4741,7 +4741,7 @@
         <v>380</v>
       </c>
       <c r="N70" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71">
@@ -4779,7 +4779,7 @@
         <v>383</v>
       </c>
       <c r="L71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M71" t="s">
         <v>384</v>
@@ -4791,7 +4791,7 @@
         <v>386</v>
       </c>
       <c r="P71" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q71" t="s">
         <v>387</v>
@@ -4803,12 +4803,12 @@
         <v>388</v>
       </c>
       <c r="T71" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -4847,37 +4847,7 @@
         <v>392</v>
       </c>
       <c r="N72" t="s">
-        <v>92</v>
-      </c>
-      <c r="O72" t="s">
-        <v>393</v>
-      </c>
-      <c r="P72" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>394</v>
-      </c>
-      <c r="R72" t="s">
-        <v>60</v>
-      </c>
-      <c r="S72" t="s">
-        <v>395</v>
-      </c>
-      <c r="T72" t="s">
-        <v>396</v>
-      </c>
-      <c r="U72" t="s">
-        <v>397</v>
-      </c>
-      <c r="V72" t="s">
-        <v>60</v>
-      </c>
-      <c r="W72" t="s">
-        <v>398</v>
-      </c>
-      <c r="X72" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
@@ -4894,10 +4864,10 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G73" t="s">
         <v>58</v>
@@ -4912,16 +4882,46 @@
         <v>58</v>
       </c>
       <c r="K73" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L73" t="s">
         <v>76</v>
       </c>
       <c r="M73" t="s">
+        <v>396</v>
+      </c>
+      <c r="N73" t="s">
+        <v>385</v>
+      </c>
+      <c r="O73" t="s">
+        <v>397</v>
+      </c>
+      <c r="P73" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>398</v>
+      </c>
+      <c r="R73" t="s">
+        <v>60</v>
+      </c>
+      <c r="S73" t="s">
+        <v>399</v>
+      </c>
+      <c r="T73" t="s">
+        <v>60</v>
+      </c>
+      <c r="U73" t="s">
+        <v>400</v>
+      </c>
+      <c r="V73" t="s">
+        <v>100</v>
+      </c>
+      <c r="W73" t="s">
+        <v>401</v>
+      </c>
+      <c r="X73" t="s">
         <v>402</v>
-      </c>
-      <c r="N73" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="74">
@@ -4959,13 +4959,13 @@
         <v>405</v>
       </c>
       <c r="L74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M74" t="s">
         <v>406</v>
       </c>
       <c r="N74" t="s">
-        <v>60</v>
+        <v>385</v>
       </c>
       <c r="O74" t="s">
         <v>407</v>
@@ -4977,13 +4977,13 @@
         <v>408</v>
       </c>
       <c r="R74" t="s">
+        <v>60</v>
+      </c>
+      <c r="S74" t="s">
         <v>409</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>410</v>
-      </c>
-      <c r="T74" t="s">
-        <v>385</v>
       </c>
       <c r="U74" t="s">
         <v>411</v>
@@ -5027,13 +5027,13 @@
         <v>414</v>
       </c>
       <c r="L75" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M75" t="s">
         <v>415</v>
       </c>
       <c r="N75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76">
@@ -5077,7 +5077,7 @@
         <v>419</v>
       </c>
       <c r="N76" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
@@ -5121,7 +5121,7 @@
         <v>423</v>
       </c>
       <c r="N77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78">
@@ -5165,7 +5165,7 @@
         <v>427</v>
       </c>
       <c r="N78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
